--- a/Figures/Table S2.xlsx
+++ b/Figures/Table S2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/North_garden/KSR_North/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E5D07-4529-7D4D-B269-48DCEB6179B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADABD6-1CD5-A74A-9624-610D44AAFE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{61129912-A183-3D4F-9327-116A73D0E744}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
-  <si>
-    <t>Slope</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>P-value</t>
   </si>
@@ -259,8 +256,11 @@
     <t>Flower Total Phenolics</t>
   </si>
   <si>
-    <r>
-      <t>Leaf Total Phenolics</t>
+    <t>Fruit Total Phenolics</t>
+  </si>
+  <si>
+    <r>
+      <t>Fruit Total Phenolics</t>
     </r>
     <r>
       <rPr>
@@ -273,11 +273,8 @@
     </r>
   </si>
   <si>
-    <t>Fruit Total Phenolics</t>
-  </si>
-  <si>
-    <r>
-      <t>Fruit Total Phenolics</t>
+    <r>
+      <t>Flower Total Phenolics</t>
     </r>
     <r>
       <rPr>
@@ -290,8 +287,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Flower Total Phenolics</t>
+    <t>Leaf Oenothein A</t>
+  </si>
+  <si>
+    <t>Flower  Oenothein A</t>
+  </si>
+  <si>
+    <t>Fruit  Oenothein A</t>
+  </si>
+  <si>
+    <r>
+      <t>Leaf  Oenothein A</t>
     </r>
     <r>
       <rPr>
@@ -304,17 +310,8 @@
     </r>
   </si>
   <si>
-    <t>Leaf Oenothein A</t>
-  </si>
-  <si>
-    <t>Flower  Oenothein A</t>
-  </si>
-  <si>
-    <t>Fruit  Oenothein A</t>
-  </si>
-  <si>
-    <r>
-      <t>Leaf  Oenothein A</t>
+    <r>
+      <t>Flower  Oenothein A</t>
     </r>
     <r>
       <rPr>
@@ -327,8 +324,28 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Flower  Oenothein A</t>
+    <t>All Uncorrelated Traits</t>
+  </si>
+  <si>
+    <r>
+      <t>Bolt Date</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Fruit Phenolics</t>
+  </si>
+  <si>
+    <r>
+      <t>Total Flower Phenolics</t>
     </r>
     <r>
       <rPr>
@@ -341,44 +358,19 @@
     </r>
   </si>
   <si>
-    <t>All Uncorrelated Traits</t>
-  </si>
-  <si>
-    <r>
-      <t>Bolt Date</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Total Fruit Phenolics</t>
-  </si>
-  <si>
-    <r>
-      <t>Total Flower Phenolics</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>P&lt;0.001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -519,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,7 +567,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -612,15 +603,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,474 +964,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C2DB1F-9670-644B-B1CC-0C037130B01B}">
-  <dimension ref="A2:D69"/>
+  <dimension ref="A2:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="47"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.5395700000000001</v>
+      </c>
+      <c r="C4" s="38">
+        <v>2.2009999999999998E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.8190000000000001E-2</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1.8090000000000001E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3" s="24" customFormat="1" ht="7">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="A6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="49">
+        <v>-2.5829999999999999E-4</v>
+      </c>
+      <c r="C6" s="52">
+        <v>4.4179999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="23" customFormat="1" ht="7">
+      <c r="A7" s="35"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.49469299999999999</v>
+      </c>
+      <c r="C9" s="38">
+        <v>3.5660000000000002E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-2.6980000000000001E-2</v>
+      </c>
+      <c r="C10" s="38">
+        <v>1.0219999999999999E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.90585400000000005</v>
+      </c>
+      <c r="C11" s="38">
+        <v>6.3492000000000007E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" s="24" customFormat="1" ht="7">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-7.2570000000000004E-3</v>
+      </c>
+      <c r="C12" s="38">
+        <v>6.1607000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="23" customFormat="1" ht="7">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2.0929999999999998E-3</v>
+      </c>
+      <c r="C15" s="40">
+        <v>8.3490400000000006E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" s="24" customFormat="1" ht="7">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="9">
+        <v>-2.0813000000000002E-2</v>
+      </c>
+      <c r="C16" s="40">
+        <v>3.971E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="23" customFormat="1" ht="7">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="49">
+        <v>0.29187000000000002</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1.4799999999999999E-4</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B20" s="51">
+        <v>-1.044E-2</v>
+      </c>
+      <c r="C20" s="37">
+        <v>9.0299999999999998E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="12">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="C21" s="40">
+        <v>3.48E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" s="24" customFormat="1" ht="7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-4.6350000000000002E-2</v>
+      </c>
+      <c r="C22" s="38">
+        <v>5.0729999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="23" customFormat="1" ht="7">
+      <c r="A23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="40">
+        <v>0.28439999999999999</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="40">
+        <v>-6.2200000000000005E-4</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-4.088E-2</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="40">
+        <v>64.39</v>
+      </c>
+      <c r="C28" s="48">
+        <v>5.0339299999999997E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" s="24" customFormat="1" ht="7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-314.2</v>
+      </c>
+      <c r="C29" s="38">
+        <v>7.2663699999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="23" customFormat="1" ht="7">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="37"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>-1.746E-2</v>
+      </c>
+      <c r="C32" s="40">
+        <v>0.117232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" ht="19">
-      <c r="A33" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="12">
+        <v>2.355</v>
+      </c>
+      <c r="C33" s="40">
+        <v>2.90739E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-1.5869999999999999E-2</v>
+      </c>
+      <c r="C34" s="38">
+        <v>3.2429800000000002E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>4.2970000000000001E-2</v>
+      </c>
+      <c r="C35" s="40">
+        <v>6.8179999999999998E-4</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:3" s="24" customFormat="1" ht="7">
-      <c r="A37" s="28"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="40">
+        <v>-1.9450000000000001E-4</v>
+      </c>
+      <c r="C36" s="40">
+        <v>1.3239999999999999E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="23" customFormat="1" ht="7">
+      <c r="A37" s="27"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="41"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="37"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="14" t="s">
+      <c r="B39" s="2">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="C39" s="36">
+        <v>8.3839999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:3" ht="19">
-      <c r="A40" s="21" t="s">
+      <c r="B40" s="6">
+        <v>5.0955599999999997E-2</v>
+      </c>
+      <c r="C40" s="38">
+        <v>0.11756999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19">
+      <c r="A41" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7">
+        <v>-4.6339999999999999E-4</v>
+      </c>
+      <c r="C41" s="37">
+        <v>7.9390000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="12">
+        <v>4.0208099999999997E-2</v>
+      </c>
+      <c r="C42" s="40">
+        <v>3.3029999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19">
+      <c r="A43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" ht="19">
-      <c r="A42" s="21" t="s">
+      <c r="B43" s="9">
+        <v>-1.192E-4</v>
+      </c>
+      <c r="C43" s="40">
+        <v>0.1091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="23" customFormat="1" ht="7">
+      <c r="A44" s="27"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="41"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="37"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="12">
+        <v>2.14722E-2</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.43969999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19">
+      <c r="A47" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-1.6129999999999999E-4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.75660000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-    </row>
-    <row r="44" spans="1:3" ht="19">
-      <c r="A44" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3" s="24" customFormat="1" ht="7">
-      <c r="A45" s="28"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="14" t="s">
+      <c r="B48" s="6">
+        <v>6.7963999999999997E-2</v>
+      </c>
+      <c r="C48" s="38">
+        <v>1.039E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19">
+      <c r="A49" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="7">
+        <v>-1.8270000000000001E-3</v>
+      </c>
+      <c r="C49" s="37">
+        <v>1.192E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-    </row>
-    <row r="48" spans="1:3" ht="19">
-      <c r="A48" s="21" t="s">
+      <c r="B50" s="12">
+        <v>6.3400000000000001E-3</v>
+      </c>
+      <c r="C50" s="40">
+        <v>2.3189999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="23" customFormat="1" ht="7">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="41"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" ht="19">
-      <c r="A50" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" s="24" customFormat="1" ht="7">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="14" t="s">
+      <c r="A53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="40"/>
+    </row>
+    <row r="54" spans="1:4" ht="19">
+      <c r="A54" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="40"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" ht="19">
-      <c r="A55" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="38"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="38"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="42"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="43"/>
+    </row>
+    <row r="60" spans="1:4" ht="19">
+      <c r="A60" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="43"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="1:4" ht="20" thickBot="1">
+      <c r="A62" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="1:4" ht="19">
-      <c r="A61" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="33"/>
-    </row>
-    <row r="63" spans="1:4" ht="20" thickBot="1">
-      <c r="A63" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="32"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="33"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="33"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="33"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Figures/Table S2.xlsx
+++ b/Figures/Table S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/North_garden/KSR_North/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADABD6-1CD5-A74A-9624-610D44AAFE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A666E9D-16AA-FD46-A1C0-3D04E17DABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{61129912-A183-3D4F-9327-116A73D0E744}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>P-value</t>
   </si>
@@ -363,13 +363,16 @@
   <si>
     <t>P&lt;0.001</t>
   </si>
+  <si>
+    <t>Ellagitannins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -606,33 +609,33 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -644,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C2DB1F-9670-644B-B1CC-0C037130B01B}">
   <dimension ref="A2:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1378,7 +1381,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="37"/>

--- a/Figures/Table S2.xlsx
+++ b/Figures/Table S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/North_garden/KSR_North/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A666E9D-16AA-FD46-A1C0-3D04E17DABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC0A8DB-885F-264D-B54B-CAFED491D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{61129912-A183-3D4F-9327-116A73D0E744}"/>
+    <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{61129912-A183-3D4F-9327-116A73D0E744}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,8 +371,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -514,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,12 +628,6 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -652,6 +647,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,14 +982,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C2DB1F-9670-644B-B1CC-0C037130B01B}">
   <dimension ref="A2:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="262" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="47"/>
+    <col min="3" max="3" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -1021,16 +1034,16 @@
       <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="45">
         <v>-2.5829999999999999E-4</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="48">
         <v>4.4179999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="23" customFormat="1" ht="7">
       <c r="A7" s="35"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -1133,7 +1146,7 @@
       <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="45">
         <v>0.29187000000000002</v>
       </c>
       <c r="C19" s="40">
@@ -1144,7 +1157,7 @@
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="47">
         <v>-1.044E-2</v>
       </c>
       <c r="C20" s="37">
@@ -1225,7 +1238,7 @@
       <c r="B28" s="40">
         <v>64.39</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="44">
         <v>5.0339299999999997E-2</v>
       </c>
     </row>
@@ -1320,7 +1333,7 @@
       <c r="C38" s="37"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="2">
@@ -1458,63 +1471,81 @@
         <v>17</v>
       </c>
       <c r="B53" s="12"/>
-      <c r="C53" s="40"/>
+      <c r="C53" s="50">
+        <v>1.5049999999999999E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="19">
       <c r="A54" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="12"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="50">
+        <v>2.4049999999999998E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="38"/>
+      <c r="C55" s="51">
+        <v>4.7019999999999999E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="38"/>
+      <c r="C56" s="6">
+        <v>0.10392999999999999</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="12"/>
-      <c r="C57" s="40"/>
+      <c r="C57" s="9">
+        <v>0.11062</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B58" s="30"/>
-      <c r="C58" s="42"/>
+      <c r="C58" s="54">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="19"/>
-      <c r="C59" s="43"/>
+      <c r="C59" s="52">
+        <v>7.8439999999999996E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="19">
       <c r="A60" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="19"/>
-      <c r="C60" s="43"/>
+      <c r="C60" s="53">
+        <v>3.0939999999999999E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B61" s="31"/>
-      <c r="C61" s="44"/>
+      <c r="C61" s="52">
+        <v>7.1900000000000002E-3</v>
+      </c>
       <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:4" ht="20" thickBot="1">
@@ -1522,43 +1553,45 @@
         <v>44</v>
       </c>
       <c r="B62" s="34"/>
-      <c r="C62" s="45"/>
+      <c r="C62" s="55">
+        <v>0.15209</v>
+      </c>
       <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
-      <c r="C63" s="46"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="33"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
-      <c r="C64" s="46"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="33"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
-      <c r="C65" s="46"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
-      <c r="C66" s="46"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="33"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
-      <c r="C67" s="46"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
-      <c r="C68" s="46"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="33"/>
     </row>
   </sheetData>

--- a/Figures/Table S2.xlsx
+++ b/Figures/Table S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/North_garden/KSR_North/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC0A8DB-885F-264D-B54B-CAFED491D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E4602-745F-354B-AB2B-260CEB2785E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{61129912-A183-3D4F-9327-116A73D0E744}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>P-value</t>
   </si>
@@ -97,24 +97,7 @@
     <t>Climate Distance</t>
   </si>
   <si>
-    <t>Mean Annual Temperature Distance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mean Annual Temperature </t>
-  </si>
-  <si>
-    <r>
-      <t>Mean Summer Precipitation Distance</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
   </si>
   <si>
     <t>Distance to Common Garden</t>
@@ -327,8 +310,40 @@
     <t>All Uncorrelated Traits</t>
   </si>
   <si>
-    <r>
-      <t>Bolt Date</t>
+    <t>Total Fruit Phenolics</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Ellagitannins</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Water_Content</t>
+  </si>
+  <si>
+    <r>
+      <t>Water_Content</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean Summer Precipitation Distance</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean Annual Temperature Distance</t>
     </r>
     <r>
       <rPr>
@@ -340,42 +355,17 @@
       <t>2</t>
     </r>
   </si>
-  <si>
-    <t>Total Fruit Phenolics</t>
-  </si>
-  <si>
-    <r>
-      <t>Total Flower Phenolics</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Coefficient</t>
-  </si>
-  <si>
-    <t>P&lt;0.001</t>
-  </si>
-  <si>
-    <t>Ellagitannins</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,6 +443,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -515,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -549,9 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -616,9 +611,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,19 +622,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,19 +631,85 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -980,24 +1026,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C2DB1F-9670-644B-B1CC-0C037130B01B}">
-  <dimension ref="A2:D68"/>
+  <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="262" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:C62"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="262" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="43"/>
+    <col min="2" max="2" width="10.83203125" style="62"/>
+    <col min="3" max="3" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="37"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
@@ -1015,7 +1062,7 @@
       <c r="B4" s="6">
         <v>1.5395700000000001</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="55">
         <v>2.2009999999999998E-3</v>
       </c>
     </row>
@@ -1024,42 +1071,42 @@
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>1.8190000000000001E-2</v>
-      </c>
-      <c r="C5" s="37">
+        <v>-1.8190000000000001E-2</v>
+      </c>
+      <c r="C5" s="57">
         <v>1.8090000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="45">
+      <c r="A6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="47">
         <v>-2.5829999999999999E-4</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="64">
         <v>4.4179999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="23" customFormat="1" ht="7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="46"/>
+    <row r="7" spans="1:3" s="22" customFormat="1" ht="7">
+      <c r="A7" s="34"/>
+      <c r="B7" s="42"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="37"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6">
         <v>0.49469299999999999</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="55">
         <v>3.5660000000000002E-3</v>
       </c>
     </row>
@@ -1070,7 +1117,7 @@
       <c r="B10" s="6">
         <v>-2.6980000000000001E-2</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="55">
         <v>1.0219999999999999E-3</v>
       </c>
     </row>
@@ -1081,7 +1128,7 @@
       <c r="B11" s="6">
         <v>0.90585400000000005</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="49">
         <v>6.3492000000000007E-2</v>
       </c>
     </row>
@@ -1092,507 +1139,505 @@
       <c r="B12" s="6">
         <v>-7.2570000000000004E-3</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="49">
         <v>6.1607000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="23" customFormat="1" ht="7">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="39"/>
+    <row r="13" spans="1:3" s="22" customFormat="1" ht="7">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="44">
         <v>2.0929999999999998E-3</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="53">
         <v>8.3490400000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
-        <v>11</v>
+      <c r="A16" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B16" s="9">
         <v>-2.0813000000000002E-2</v>
       </c>
-      <c r="C16" s="40">
-        <v>3.971E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="23" customFormat="1" ht="7">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="41"/>
+      <c r="C16" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="22" customFormat="1" ht="7">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="46">
+        <v>0.29187000000000002</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19">
+      <c r="A20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="48">
+        <v>-1.044E-2</v>
+      </c>
+      <c r="C20" s="54">
+        <v>9.0299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="37"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="45">
-        <v>0.29187000000000002</v>
-      </c>
-      <c r="C19" s="40">
-        <v>1.4799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19">
-      <c r="A20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="47">
-        <v>-1.044E-2</v>
-      </c>
-      <c r="C20" s="37">
-        <v>9.0299999999999998E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="50">
         <v>3.48E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
-        <v>14</v>
+      <c r="A22" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B22" s="6">
         <v>-4.6350000000000002E-2</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="49">
         <v>5.0729999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="23" customFormat="1" ht="7">
-      <c r="A23" s="26"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="1:3" s="22" customFormat="1" ht="7">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="37"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="40">
+      <c r="A25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="9">
         <v>0.28439999999999999</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>46</v>
+      <c r="C25" s="51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
-      <c r="A26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="40">
+      <c r="A26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="44">
         <v>-6.2200000000000005E-4</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>46</v>
+      <c r="C26" s="51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="6">
         <v>-4.088E-2</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>46</v>
+      <c r="C27" s="51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="40">
+      <c r="A28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="9">
         <v>64.39</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="58">
         <v>5.0339299999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="6">
+        <v>19</v>
+      </c>
+      <c r="B29" s="63">
         <v>-314.2</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="49">
         <v>7.2663699999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="23" customFormat="1" ht="7">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="1:3" s="22" customFormat="1" ht="7">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="60">
         <v>-1.746E-2</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="9">
         <v>0.117232</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2.355</v>
+      </c>
+      <c r="C33" s="50">
+        <v>2.90739E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19">
+      <c r="A34" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="B33" s="12">
-        <v>2.355</v>
-      </c>
-      <c r="C33" s="40">
-        <v>2.90739E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19">
-      <c r="A34" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="B34" s="6">
         <v>-1.5869999999999999E-2</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="55">
         <v>3.2429800000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="60">
+        <v>4.2970000000000001E-2</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19">
+      <c r="A36" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B35">
-        <v>4.2970000000000001E-2</v>
-      </c>
-      <c r="C35" s="40">
-        <v>6.8179999999999998E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19">
-      <c r="A36" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="40">
+      <c r="B36" s="38">
         <v>-1.9450000000000001E-4</v>
       </c>
-      <c r="C36" s="40">
-        <v>1.3239999999999999E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="23" customFormat="1" ht="7">
-      <c r="A37" s="27"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="41"/>
+      <c r="C36" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="22" customFormat="1" ht="7">
+      <c r="A37" s="26"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="39"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="36"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="59">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="C39" s="65">
+        <v>8.3839999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="37"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="C39" s="36">
-        <v>8.3839999999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="B40" s="6">
         <v>5.0955599999999997E-2</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="6">
         <v>0.11756999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19">
-      <c r="A41" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="7">
+      <c r="A41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="36">
         <v>-4.6339999999999999E-4</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="66">
         <v>7.9390000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="12">
+      <c r="A42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="9">
         <v>4.0208099999999997E-2</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="67">
         <v>3.3029999999999997E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19">
-      <c r="A43" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="9">
+      <c r="A43" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="38">
         <v>-1.192E-4</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="9">
         <v>0.1091</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="23" customFormat="1" ht="7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="41"/>
+    <row r="44" spans="1:3" s="22" customFormat="1" ht="7">
+      <c r="A44" s="26"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="37"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="36"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="12">
+      <c r="A46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="9">
         <v>2.14722E-2</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="9">
         <v>0.43969999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19">
-      <c r="A47" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="4">
+      <c r="A47" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="36">
         <v>-1.6129999999999999E-4</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="7">
         <v>0.75660000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="14" t="s">
-        <v>37</v>
+      <c r="A48" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="6">
         <v>6.7963999999999997E-2</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="68">
         <v>1.039E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19">
-      <c r="A49" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="56">
         <v>-1.8270000000000001E-3</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="54">
         <v>1.192E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="12">
+      <c r="A50" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="9">
         <v>6.3400000000000001E-3</v>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="50">
         <v>2.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="23" customFormat="1" ht="7">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="41"/>
+    <row r="51" spans="1:4" s="22" customFormat="1" ht="7">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="39"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="37"/>
+      <c r="C52" s="36"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="12"/>
+      <c r="A53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="46">
+        <v>0.1678</v>
+      </c>
       <c r="C53" s="50">
-        <v>1.5049999999999999E-2</v>
+        <v>2.0470000000000002E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19">
       <c r="A54" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="B54" s="47">
+        <v>3.6000000000000002E-4</v>
+      </c>
       <c r="C54" s="50">
-        <v>2.4049999999999998E-2</v>
+        <v>3.0669999999999998E-3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="51">
-        <v>4.7019999999999999E-2</v>
+      <c r="A55" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="46">
+        <v>-5.1560000000000002E-2</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6">
-        <v>0.10392999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9">
-        <v>0.11062</v>
+      <c r="A56" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="46">
+        <v>1.8890000000000001E-2</v>
+      </c>
+      <c r="C56" s="69">
+        <v>3.6725000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19">
+      <c r="A57" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="47">
+        <v>-9.0000000000000006E-5</v>
+      </c>
+      <c r="C57" s="64">
+        <v>9.8530000000000006E-3</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="54">
-        <v>0.1</v>
+      <c r="A58" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="70">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="C58" s="69">
+        <v>9.3030000000000005E-3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="52">
-        <v>7.8439999999999996E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19">
-      <c r="A60" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="53">
-        <v>3.0939999999999999E-2</v>
-      </c>
+      <c r="A59" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="29">
+        <v>1.214</v>
+      </c>
+      <c r="C59" s="29">
+        <v>0.13483800000000001</v>
+      </c>
+      <c r="D59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" ht="20" thickBot="1">
+      <c r="A60" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="71">
+        <v>8.1890000000000001E-3</v>
+      </c>
+      <c r="C60" s="45">
+        <v>0.139678</v>
+      </c>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="52">
-        <v>7.1900000000000002E-3</v>
-      </c>
+      <c r="A61" s="32"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="32"/>
     </row>
-    <row r="62" spans="1:4" ht="20" thickBot="1">
-      <c r="A62" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="55">
-        <v>0.15209</v>
-      </c>
+    <row r="62" spans="1:4">
+      <c r="A62" s="32"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="33"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="33"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="33"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="33"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="33"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="33"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
